--- a/6.Project network Diagram.xlsx
+++ b/6.Project network Diagram.xlsx
@@ -340,7 +340,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$B$8:$D$10" spid="_x0000_s1505"/>
+                  <a14:cameraTool cellRange="$B$8:$D$10" spid="_x0000_s1571"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -408,7 +408,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$F$8:$H$10" spid="_x0000_s1506"/>
+                  <a14:cameraTool cellRange="$F$8:$H$10" spid="_x0000_s1572"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -476,7 +476,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$B$12:$D$14" spid="_x0000_s1507"/>
+                  <a14:cameraTool cellRange="$B$12:$D$14" spid="_x0000_s1573"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -647,7 +647,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$F$12:$H$14" spid="_x0000_s1508"/>
+                  <a14:cameraTool cellRange="$F$12:$H$14" spid="_x0000_s1574"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -768,7 +768,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$F$16:$H$18" spid="_x0000_s1509"/>
+                  <a14:cameraTool cellRange="$F$16:$H$18" spid="_x0000_s1575"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -886,7 +886,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$B$16:$D$18" spid="_x0000_s1510"/>
+                  <a14:cameraTool cellRange="$B$16:$D$18" spid="_x0000_s1576"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -1004,7 +1004,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$B$20:$D$22" spid="_x0000_s1511"/>
+                  <a14:cameraTool cellRange="$B$20:$D$22" spid="_x0000_s1577"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -1122,7 +1122,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$F$20:$H$22" spid="_x0000_s1512"/>
+                  <a14:cameraTool cellRange="$F$20:$H$22" spid="_x0000_s1578"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -1290,7 +1290,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$B$24:$D$26" spid="_x0000_s1513"/>
+                  <a14:cameraTool cellRange="$B$24:$D$26" spid="_x0000_s1579"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -1461,7 +1461,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$F$24:$H$26" spid="_x0000_s1514"/>
+                  <a14:cameraTool cellRange="$F$24:$H$26" spid="_x0000_s1580"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -1529,7 +1529,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$B$28:$D$30" spid="_x0000_s1515"/>
+                  <a14:cameraTool cellRange="$B$28:$D$30" spid="_x0000_s1581"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -2002,8 +2002,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="89" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="9" topLeftCell="AF1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="120" workbookViewId="0">
+      <pane xSplit="9" topLeftCell="J1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="AU14" sqref="AU14"/>
     </sheetView>
   </sheetViews>
